--- a/biology/Microbiologie/Neisseria/Neisseria.xlsx
+++ b/biology/Microbiologie/Neisseria/Neisseria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les Neisseria forment un genre de bactéries à gram négatif appartenant à la famille des Neisseriaceae, dans le groupe des Pseudomonadota (ex-Proteobacteria).
 Les Neisseria sont des coques le plus souvent par paire (diplocoques) ressemblant à des grains de café. Ce sont des bactéries immobiles, aérobie strict, chimiohétérotrophe et oxydase positive. Les différentes espèces peuvent être différenciables entre elles par des tests d'utilisation des sucres (selon leur capacité à utiliser le glucose, le maltose, le lactose et le saccharose).
@@ -524,7 +536,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Neisseria doit son nom au bactériologiste allemand Albert Neisser, qui en 1879 fit la découverte de son premier représentant pathogène, le gonocoque responsable de la gonorrhée, une maladie humaine sexuellement transmissible. Neisser participa également à la découverte du bacille de Hansen, l'agent de la lèpre. Ces découvertes furent rendues possibles grâce à de nouvelles techniques de coloration qu'il contribua à développer.
 </t>
@@ -555,11 +569,48 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une souche devrait être identifiée pour poser le diagnostic d'une pathologie (méningite, gonorrhée), ou pour exclure ces pathologies. Pour l'identification, classiquement sont utilisés des caractéristiques culturales de la souche, par culture et examen direct. La culture peut durer entre 24 et 48 heures, et le diagnostic présomptif indique une antibiothérapie probabilistique d'urgence. Pour les deux espèces pathogènes (gonocoque et meningocoque, il existe actuellement des méthodes de diagnostic rapides moléculaires avec une réponse dans 4 heures (PCR).
-Matrice d'identification des Neisseria
--1= négatif ou absence, caractère absent;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neisseria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neisseria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Identification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Matrice d'identification des Neisseria</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-1= négatif ou absence, caractère absent;
 1= positif ou présence, caractère présent;
 0 ou espace libre = caractère variable ou absence d'information
  Portail de la microbiologie                     </t>
